--- a/tests/dust_data/old_formats/dust_table_17.1_sfsc-mod.xlsx
+++ b/tests/dust_data/old_formats/dust_table_17.1_sfsc-mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\tests\dust_data\old_formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD44852-3115-4974-902A-3FA020C4465E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74420FD1-84EF-4D0F-8480-C52D19664ABB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="0" windowWidth="11196" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t xml:space="preserve">Human Hair   Natural </t>
   </si>
@@ -214,15 +214,9 @@
     <t>C Brn</t>
   </si>
   <si>
-    <t xml:space="preserve"> C </t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -338,6 +332,9 @@
   </si>
   <si>
     <t>Wine</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>Perlite</t>
@@ -694,13 +691,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -711,31 +708,31 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -758,16 +755,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -785,45 +782,45 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -845,16 +842,16 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -866,8 +863,8 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>66</v>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -895,49 +892,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
         <v>93</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>95</v>
       </c>
-      <c r="L21" t="s">
-        <v>97</v>
-      </c>
       <c r="M21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
         <v>98</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>100</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>102</v>
-      </c>
-      <c r="P21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -975,49 +972,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" t="s">
         <v>78</v>
       </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" t="s">
-        <v>96</v>
-      </c>
-      <c r="L28" t="s">
-        <v>80</v>
-      </c>
       <c r="M28" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" t="s">
         <v>99</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>101</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>103</v>
-      </c>
-      <c r="P28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -1034,8 +1031,8 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
+      <c r="B31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -1057,8 +1054,8 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>66</v>
+      <c r="B35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,24 +1082,24 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>66</v>
+      <c r="B40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>66</v>
+      <c r="B41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>66</v>
+      <c r="B42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1110,54 +1107,54 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" t="s">
-        <v>70</v>
-      </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>66</v>
+      <c r="B44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
+      <c r="B45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>66</v>
+      <c r="B46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>66</v>
+      <c r="B47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1169,16 +1166,16 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>66</v>
+      <c r="B49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,32 +1197,32 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>66</v>
+      <c r="B54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>66</v>
+      <c r="B55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>66</v>
+      <c r="B56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>66</v>
+      <c r="B57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,8 +1254,8 @@
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>66</v>
+      <c r="B63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,6 +1265,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>